--- a/colors-config.xlsx
+++ b/colors-config.xlsx
@@ -86,11 +86,11 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
       <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
     </font>
   </fonts>
   <fills count="8">
@@ -163,21 +163,21 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="false"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="left" vertical="center"/>
+      <protection locked="true"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -193,7 +193,7 @@
   <cols>
     <col min="1" max="1" width="13.23828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.34375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="55.0" customWidth="true"/>
+    <col min="3" max="3" width="60.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -208,11 +208,11 @@
       <c r="A2" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
-        <f><![CDATA[IF(AND(TRIM(UPPER($B$2))="TRUE", OR(TRIM(UPPER($B$4))<>"RED", TRIM(UPPER($B$5))<>"GOLD", TRIM(UPPER($B$6))<>"MAGENTA", TRIM(UPPER($B$7))<>"BLUE", TRIM(UPPER($B$8))<>"CYAN", TRIM(UPPER($B$9))<>"BLACK")), "Change USE_DEFAULTS to FALSE to apply custom colors.", "")]]></f>
+      <c r="C2" s="4">
+        <f><![CDATA[IF(AND(TRIM(UPPER($B$2))="TRUE", OR(TRIM(UPPER($B$4))<>"RED", TRIM(UPPER($B$5))<>"GOLD", TRIM(UPPER($B$6))<>"MAGENTA", TRIM(UPPER($B$7))<>"BLUE", TRIM(UPPER($B$8))<>"CYAN", TRIM(UPPER($B$9))<>"BLACK")), "❗ Change USE_DEFAULTS to FALSE to apply custom colors.", "")]]></f>
       </c>
     </row>
     <row r="3"/>
@@ -220,7 +220,7 @@
       <c r="A4" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="B4" t="s" s="3">
         <v>5</v>
       </c>
     </row>
@@ -228,7 +228,7 @@
       <c r="A5" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="3">
         <v>7</v>
       </c>
     </row>
@@ -236,7 +236,7 @@
       <c r="A6" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B6" t="s" s="4">
+      <c r="B6" t="s" s="3">
         <v>9</v>
       </c>
     </row>
@@ -244,7 +244,7 @@
       <c r="A7" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B7" t="s" s="4">
+      <c r="B7" t="s" s="3">
         <v>11</v>
       </c>
     </row>
@@ -252,7 +252,7 @@
       <c r="A8" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B8" t="s" s="4">
+      <c r="B8" t="s" s="3">
         <v>13</v>
       </c>
     </row>
@@ -260,12 +260,12 @@
       <c r="A9" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="B9" t="s" s="3">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C545" sheet="true" scenarios="true" objects="true"/>
+  <sheetProtection password="AF82" sheet="true" scenarios="true" objects="true"/>
   <dataValidations count="7">
     <dataValidation type="list" sqref="B2" allowBlank="true" errorStyle="stop" showErrorMessage="true">
       <formula1>"TRUE,FALSE"</formula1>

--- a/colors-config.xlsx
+++ b/colors-config.xlsx
@@ -223,6 +223,9 @@
       <c r="B4" t="s" s="3">
         <v>5</v>
       </c>
+      <c r="C4" s="4">
+        <f>IF(AND(TRIM(UPPER($B$2))="TRUE", TRIM(UPPER(B4))&lt;&gt;"RED"), "❗ Correct color should be RED", "")</f>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
@@ -231,6 +234,9 @@
       <c r="B5" t="s" s="3">
         <v>7</v>
       </c>
+      <c r="C5" s="4">
+        <f>IF(AND(TRIM(UPPER($B$2))="TRUE", TRIM(UPPER(B5))&lt;&gt;"GOLD"), "❗ Correct color should be GOLD", "")</f>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -239,6 +245,9 @@
       <c r="B6" t="s" s="3">
         <v>9</v>
       </c>
+      <c r="C6" s="4">
+        <f>IF(AND(TRIM(UPPER($B$2))="TRUE", TRIM(UPPER(B6))&lt;&gt;"MAGENTA"), "❗ Correct color should be MAGENTA", "")</f>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
@@ -247,6 +256,9 @@
       <c r="B7" t="s" s="3">
         <v>11</v>
       </c>
+      <c r="C7" s="4">
+        <f>IF(AND(TRIM(UPPER($B$2))="TRUE", TRIM(UPPER(B7))&lt;&gt;"BLUE"), "❗ Correct color should be BLUE", "")</f>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
@@ -255,6 +267,9 @@
       <c r="B8" t="s" s="3">
         <v>13</v>
       </c>
+      <c r="C8" s="4">
+        <f>IF(AND(TRIM(UPPER($B$2))="TRUE", TRIM(UPPER(B8))&lt;&gt;"CYAN"), "❗ Correct color should be CYAN", "")</f>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
@@ -262,6 +277,9 @@
       </c>
       <c r="B9" t="s" s="3">
         <v>15</v>
+      </c>
+      <c r="C9" s="4">
+        <f>IF(AND(TRIM(UPPER($B$2))="TRUE", TRIM(UPPER(B9))&lt;&gt;"BLACK"), "❗ Correct color should be BLACK", "")</f>
       </c>
     </row>
   </sheetData>
